--- a/src/log/log_201608040125_孙天越.xlsx
+++ b/src/log/log_201608040125_孙天越.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\新建文件夹 (3)\TANWANLANYUE\src\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4E9A8ECF-6CB5-48D9-97BB-C97A30577D50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7E8BB17-92F9-479E-9D10-9674510649A4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="108" windowWidth="13656" windowHeight="6888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>提交失败，重新安装git和TortoiseGit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -574,19 +578,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/log/log_201608040125_孙天越.xlsx
+++ b/src/log/log_201608040125_孙天越.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\TANWANLANYUE\src\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7E8BB17-92F9-479E-9D10-9674510649A4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E7E89CD-2F2A-45BD-8724-B186252EA8E2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="108" windowWidth="13656" windowHeight="6888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>修改文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载jira和jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -599,6 +607,22 @@
       </c>
       <c r="B10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/log/log_201608040125_孙天越.xlsx
+++ b/src/log/log_201608040125_孙天越.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\TANWANLANYUE\src\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E7E89CD-2F2A-45BD-8724-B186252EA8E2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF2540B8-11C2-4BAD-B142-DDECF3606F13}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="108" windowWidth="13656" windowHeight="6888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>完善项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改测试文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -623,6 +627,14 @@
       </c>
       <c r="B12" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
